--- a/fuentes/contenidos/grado09/guion12/CS_09_12_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado09/guion12/CS_09_12_CO_Escaleta.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCMarquez\Desktop\Ecaletas\Escaletas ajustadas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16290" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$284</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="199">
   <si>
     <t>Asignatura</t>
   </si>
@@ -122,9 +117,6 @@
     <t>Objetivo: El interactivo muestra cuáles son los rasgos básicos de una ciudad a partir de una pregunta de partida: "¿Dónde vivir?" Para responder, los estudiantes necesitarán comprender que existen unos parámetros que nos ayudan a definir si una población es un núcleo rural o urbano.</t>
   </si>
   <si>
-    <t>2 ESO</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
@@ -582,13 +574,55 @@
   </si>
   <si>
     <t>m15a</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>M4a</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los rasgos principales de la ciudad </t>
+  </si>
+  <si>
+    <t>Procedimiento: comentar e interpretar un plano urbano</t>
+  </si>
+  <si>
+    <t>Distingue los distintos planos urbanos</t>
+  </si>
+  <si>
+    <t>Identifica las ventajas e inconvenientes de los distintos planos urbanos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La forma y funciones de las ciudades</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las grandes ciudades en el mundo actual</t>
+  </si>
+  <si>
+    <t>Proyecto: análisis de la relación entre plano y problemas urbanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +654,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -755,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -818,6 +860,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -888,12 +936,9 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -989,7 +1034,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1198,11 +1243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U284"/>
+  <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1259,7 @@
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="68.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9" style="57" customWidth="1"/>
+    <col min="8" max="8" width="9" style="34" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="103.5703125" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
@@ -1225,99 +1270,99 @@
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="73.42578125" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="31" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="31" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="42"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44"/>
       <c r="M2" s="32" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="51"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1360,20 +1405,20 @@
       <c r="P3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="28">
+        <v>8</v>
+      </c>
+      <c r="R3" s="29" t="s">
         <v>32</v>
-      </c>
-      <c r="R3" s="29" t="s">
-        <v>33</v>
       </c>
       <c r="S3" s="28" t="s">
         <v>24</v>
       </c>
       <c r="T3" s="30" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="U3" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1390,49 +1435,49 @@
         <v>25</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="33">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="56">
-        <v>2</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="58">
+        <v>8</v>
+      </c>
+      <c r="R4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="S4" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="58" t="s">
         <v>33</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1446,23 +1491,23 @@
         <v>24</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="56">
+        <v>43</v>
+      </c>
+      <c r="H5" s="33">
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>27</v>
@@ -1473,25 +1518,25 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="10">
+        <v>8</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1505,52 +1550,52 @@
         <v>24</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="33">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="H6" s="56">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="10">
+        <v>8</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1564,52 +1609,52 @@
         <v>24</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="33">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="H7" s="56">
-        <v>5</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="10">
+        <v>8</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1623,52 +1668,52 @@
         <v>24</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="33">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>56</v>
-      </c>
-      <c r="H8" s="56">
-        <v>6</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>57</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="10">
+        <v>8</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S8" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1682,52 +1727,52 @@
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="33">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="H9" s="56">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="10">
+        <v>8</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1741,52 +1786,52 @@
         <v>24</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="33">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="H10" s="56">
-        <v>8</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="10">
+        <v>8</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1800,29 +1845,29 @@
         <v>24</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="56">
+        <v>65</v>
+      </c>
+      <c r="H11" s="33">
         <v>9</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -1830,20 +1875,20 @@
       <c r="P11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="10">
+        <v>8</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1857,23 +1902,23 @@
         <v>24</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="56">
+        <v>68</v>
+      </c>
+      <c r="H12" s="33">
         <v>10</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>27</v>
@@ -1884,25 +1929,25 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="10">
+        <v>8</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S12" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1916,52 +1961,52 @@
         <v>24</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="33">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="H13" s="56">
-        <v>11</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="10">
+        <v>8</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1975,21 +2020,21 @@
         <v>24</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="9"/>
       <c r="G14" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="56">
+        <v>74</v>
+      </c>
+      <c r="H14" s="33">
         <v>12</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>27</v>
@@ -2000,25 +2045,25 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="10">
+        <v>8</v>
+      </c>
+      <c r="R14" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2032,52 +2077,52 @@
         <v>24</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="33">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="H15" s="56">
-        <v>13</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>79</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" s="10">
+        <v>8</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2091,27 +2136,27 @@
         <v>24</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="56">
+        <v>80</v>
+      </c>
+      <c r="H16" s="33">
         <v>14</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -2119,20 +2164,20 @@
       <c r="P16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="10">
+        <v>8</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S16" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2146,50 +2191,50 @@
         <v>24</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="33">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="H17" s="56">
-        <v>15</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="10">
+        <v>8</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S17" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2203,52 +2248,52 @@
         <v>24</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="33">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="H18" s="56">
-        <v>16</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" s="10">
+        <v>8</v>
+      </c>
+      <c r="R18" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2262,50 +2307,50 @@
         <v>24</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
       <c r="G19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="33">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="H19" s="56">
-        <v>17</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="10">
+        <v>8</v>
+      </c>
+      <c r="R19" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2319,50 +2364,50 @@
         <v>24</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
       <c r="G20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="33">
+        <v>18</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="H20" s="56">
-        <v>18</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="Q20" s="10">
+        <v>8</v>
+      </c>
+      <c r="R20" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>24</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2376,51 +2421,43 @@
         <v>24</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="33">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="H21" s="56">
-        <v>19</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P21" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="U21" s="10" t="s">
-        <v>34</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="R21" s="11"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -2433,50 +2470,52 @@
         <v>24</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="33">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="H22" s="56">
-        <v>20</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="N22" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="O22" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="10" t="s">
-        <v>32</v>
+      <c r="Q22" s="10">
+        <v>6</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2490,50 +2529,52 @@
         <v>24</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
       <c r="G23" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="33">
+        <v>21</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="H23" s="56">
-        <v>21</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="O23" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2544,7 +2585,7 @@
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="56"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="5"/>
       <c r="J24" s="17"/>
       <c r="K24" s="7"/>
@@ -2567,7 +2608,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="56"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="5"/>
       <c r="J25" s="17"/>
       <c r="K25" s="7"/>
@@ -2590,7 +2631,7 @@
       <c r="E26" s="13"/>
       <c r="F26" s="9"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="56"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="5"/>
       <c r="J26" s="17"/>
       <c r="K26" s="7"/>
@@ -2613,7 +2654,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="9"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="56"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="5"/>
       <c r="J27" s="17"/>
       <c r="K27" s="7"/>
@@ -2636,7 +2677,7 @@
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="56"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="5"/>
       <c r="J28" s="17"/>
       <c r="K28" s="7"/>
@@ -2659,7 +2700,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="56"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="5"/>
       <c r="J29" s="17"/>
       <c r="K29" s="7"/>
@@ -2682,7 +2723,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="56"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="5"/>
       <c r="J30" s="17"/>
       <c r="K30" s="7"/>
@@ -2705,7 +2746,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="56"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="5"/>
       <c r="J31" s="17"/>
       <c r="K31" s="7"/>
@@ -2728,7 +2769,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="9"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="56"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="5"/>
       <c r="J32" s="17"/>
       <c r="K32" s="7"/>
@@ -2751,7 +2792,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="9"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="56"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="5"/>
       <c r="J33" s="17"/>
       <c r="K33" s="7"/>
@@ -2774,7 +2815,7 @@
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="56"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="5"/>
       <c r="J34" s="17"/>
       <c r="K34" s="7"/>
@@ -2797,7 +2838,7 @@
       <c r="E35" s="13"/>
       <c r="F35" s="9"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="56"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="5"/>
       <c r="J35" s="17"/>
       <c r="K35" s="7"/>
@@ -2820,7 +2861,7 @@
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="56"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="5"/>
       <c r="J36" s="17"/>
       <c r="K36" s="7"/>
@@ -2843,7 +2884,7 @@
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="56"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="5"/>
       <c r="J37" s="17"/>
       <c r="K37" s="7"/>
@@ -2866,7 +2907,7 @@
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="56"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="5"/>
       <c r="J38" s="17"/>
       <c r="K38" s="7"/>
@@ -2889,7 +2930,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="56"/>
+      <c r="H39" s="33"/>
       <c r="I39" s="5"/>
       <c r="J39" s="17"/>
       <c r="K39" s="7"/>
@@ -2912,7 +2953,7 @@
       <c r="E40" s="13"/>
       <c r="F40" s="9"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="56"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="5"/>
       <c r="J40" s="17"/>
       <c r="K40" s="7"/>
@@ -2935,7 +2976,7 @@
       <c r="E41" s="13"/>
       <c r="F41" s="9"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="56"/>
+      <c r="H41" s="33"/>
       <c r="I41" s="5"/>
       <c r="J41" s="17"/>
       <c r="K41" s="7"/>
@@ -2958,7 +2999,7 @@
       <c r="E42" s="13"/>
       <c r="F42" s="9"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="56"/>
+      <c r="H42" s="33"/>
       <c r="I42" s="5"/>
       <c r="J42" s="17"/>
       <c r="K42" s="7"/>
@@ -2981,7 +3022,7 @@
       <c r="E43" s="13"/>
       <c r="F43" s="9"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="56"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="5"/>
       <c r="J43" s="17"/>
       <c r="K43" s="7"/>
@@ -3004,7 +3045,7 @@
       <c r="E44" s="13"/>
       <c r="F44" s="9"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="56"/>
+      <c r="H44" s="33"/>
       <c r="I44" s="5"/>
       <c r="J44" s="17"/>
       <c r="K44" s="7"/>
@@ -3027,7 +3068,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="9"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="56"/>
+      <c r="H45" s="33"/>
       <c r="I45" s="5"/>
       <c r="J45" s="17"/>
       <c r="K45" s="7"/>
@@ -3050,7 +3091,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="9"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="56"/>
+      <c r="H46" s="33"/>
       <c r="I46" s="5"/>
       <c r="J46" s="17"/>
       <c r="K46" s="7"/>
@@ -3073,7 +3114,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="9"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="56"/>
+      <c r="H47" s="33"/>
       <c r="I47" s="5"/>
       <c r="J47" s="17"/>
       <c r="K47" s="7"/>
@@ -3096,7 +3137,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="9"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="56"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="5"/>
       <c r="J48" s="17"/>
       <c r="K48" s="7"/>
@@ -3119,7 +3160,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="9"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="56"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="5"/>
       <c r="J49" s="17"/>
       <c r="K49" s="7"/>
@@ -3142,7 +3183,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="9"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="56"/>
+      <c r="H50" s="33"/>
       <c r="I50" s="5"/>
       <c r="J50" s="17"/>
       <c r="K50" s="7"/>
@@ -3165,7 +3206,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="9"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="56"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="5"/>
       <c r="J51" s="17"/>
       <c r="K51" s="7"/>
@@ -3188,7 +3229,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="9"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="56"/>
+      <c r="H52" s="33"/>
       <c r="I52" s="5"/>
       <c r="J52" s="17"/>
       <c r="K52" s="7"/>
@@ -3211,7 +3252,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="9"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="56"/>
+      <c r="H53" s="33"/>
       <c r="I53" s="5"/>
       <c r="J53" s="17"/>
       <c r="K53" s="7"/>
@@ -3234,7 +3275,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="9"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="56"/>
+      <c r="H54" s="33"/>
       <c r="I54" s="5"/>
       <c r="J54" s="17"/>
       <c r="K54" s="7"/>
@@ -3257,7 +3298,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="9"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="56"/>
+      <c r="H55" s="33"/>
       <c r="I55" s="5"/>
       <c r="J55" s="17"/>
       <c r="K55" s="7"/>
@@ -3280,7 +3321,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="9"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="56"/>
+      <c r="H56" s="33"/>
       <c r="I56" s="5"/>
       <c r="J56" s="17"/>
       <c r="K56" s="7"/>
@@ -3303,7 +3344,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="9"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="56"/>
+      <c r="H57" s="33"/>
       <c r="I57" s="5"/>
       <c r="J57" s="17"/>
       <c r="K57" s="7"/>
@@ -3326,7 +3367,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="9"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="56"/>
+      <c r="H58" s="33"/>
       <c r="I58" s="5"/>
       <c r="J58" s="17"/>
       <c r="K58" s="7"/>
@@ -3349,7 +3390,7 @@
       <c r="E59" s="13"/>
       <c r="F59" s="9"/>
       <c r="G59" s="16"/>
-      <c r="H59" s="56"/>
+      <c r="H59" s="33"/>
       <c r="I59" s="5"/>
       <c r="J59" s="17"/>
       <c r="K59" s="7"/>
@@ -3372,7 +3413,7 @@
       <c r="E60" s="13"/>
       <c r="F60" s="9"/>
       <c r="G60" s="16"/>
-      <c r="H60" s="56"/>
+      <c r="H60" s="33"/>
       <c r="I60" s="5"/>
       <c r="J60" s="17"/>
       <c r="K60" s="7"/>
@@ -3395,7 +3436,7 @@
       <c r="E61" s="13"/>
       <c r="F61" s="9"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="56"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="5"/>
       <c r="J61" s="17"/>
       <c r="K61" s="7"/>
@@ -3418,7 +3459,7 @@
       <c r="E62" s="13"/>
       <c r="F62" s="9"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="56"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="5"/>
       <c r="J62" s="17"/>
       <c r="K62" s="7"/>
@@ -3441,7 +3482,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="9"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="56"/>
+      <c r="H63" s="33"/>
       <c r="I63" s="5"/>
       <c r="J63" s="17"/>
       <c r="K63" s="7"/>
@@ -3464,7 +3505,7 @@
       <c r="E64" s="13"/>
       <c r="F64" s="9"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="56"/>
+      <c r="H64" s="33"/>
       <c r="I64" s="5"/>
       <c r="J64" s="17"/>
       <c r="K64" s="7"/>
@@ -3487,7 +3528,7 @@
       <c r="E65" s="13"/>
       <c r="F65" s="9"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="56"/>
+      <c r="H65" s="33"/>
       <c r="I65" s="5"/>
       <c r="J65" s="17"/>
       <c r="K65" s="7"/>
@@ -3510,7 +3551,7 @@
       <c r="E66" s="13"/>
       <c r="F66" s="9"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="56"/>
+      <c r="H66" s="33"/>
       <c r="I66" s="5"/>
       <c r="J66" s="17"/>
       <c r="K66" s="7"/>
@@ -3533,7 +3574,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="9"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="56"/>
+      <c r="H67" s="33"/>
       <c r="I67" s="5"/>
       <c r="J67" s="17"/>
       <c r="K67" s="7"/>
@@ -3556,7 +3597,7 @@
       <c r="E68" s="13"/>
       <c r="F68" s="9"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="56"/>
+      <c r="H68" s="33"/>
       <c r="I68" s="5"/>
       <c r="J68" s="17"/>
       <c r="K68" s="7"/>
@@ -3579,7 +3620,7 @@
       <c r="E69" s="13"/>
       <c r="F69" s="9"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="56"/>
+      <c r="H69" s="33"/>
       <c r="I69" s="5"/>
       <c r="J69" s="17"/>
       <c r="K69" s="7"/>
@@ -3602,7 +3643,7 @@
       <c r="E70" s="13"/>
       <c r="F70" s="9"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="56"/>
+      <c r="H70" s="33"/>
       <c r="I70" s="5"/>
       <c r="J70" s="17"/>
       <c r="K70" s="7"/>
@@ -3617,371 +3658,192 @@
       <c r="T70" s="12"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="U1:U2"/>
@@ -4075,36 +3937,36 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4116,10 +3978,10 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
@@ -4138,11 +4000,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4154,11 +4016,11 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4170,12 +4032,12 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4187,12 +4049,12 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -4207,7 +4069,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -4222,7 +4084,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4237,7 +4099,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4252,7 +4114,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4267,7 +4129,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4282,7 +4144,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4297,7 +4159,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4312,7 +4174,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4327,7 +4189,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4341,7 +4203,7 @@
       <c r="B17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4355,7 +4217,7 @@
       <c r="B18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4369,7 +4231,7 @@
       <c r="B19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -4383,7 +4245,7 @@
       <c r="B20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -4398,7 +4260,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -4413,7 +4275,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4428,7 +4290,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -4443,7 +4305,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -4458,7 +4320,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -4473,7 +4335,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -4488,7 +4350,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -4503,7 +4365,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -4518,7 +4380,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -4533,7 +4395,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -4548,7 +4410,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -4563,7 +4425,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4578,7 +4440,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -4593,7 +4455,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4608,7 +4470,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4623,7 +4485,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4638,7 +4500,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4653,7 +4515,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -4668,7 +4530,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4683,7 +4545,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -4698,7 +4560,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4713,7 +4575,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4728,7 +4590,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4743,7 +4605,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4758,7 +4620,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -4773,7 +4635,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -4788,7 +4650,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -4803,7 +4665,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
